--- a/daily_status/rahamatha_team_memeber_class_details.xlsx
+++ b/daily_status/rahamatha_team_memeber_class_details.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rahamatha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rahamatha_git\Daily_tasks\daily_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15F78F6-7223-45B9-9FD0-BA0739C57F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C58ACF2-413A-46E0-98D0-4C468BC68B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D4F43D39-29BF-4E01-9AC3-87680BE4A500}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>date</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>practice</t>
+  </si>
+  <si>
+    <t>unorgered list</t>
   </si>
 </sst>
 </file>
@@ -426,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8495BAB-22A1-4AD7-BC2D-C7C0514B4DBD}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,6 +480,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>45667</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -484,10 +495,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076C50C2-4FE5-4D79-9239-8916182970E9}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,6 +543,14 @@
         <v>45666</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>45667</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
     </row>
